--- a/plantillas/consulta/Reporte_Levantada_Distrito.xlsx
+++ b/plantillas/consulta/Reporte_Levantada_Distrito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603533CC-EA0F-40DC-89D7-BA22A3256327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8128D11-9239-4D78-A130-DF8E3E9F8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,34 +515,40 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="4" t="s">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
